--- a/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
+++ b/InputData/bldgs/MSCdtRPbQL/Market Share Changes due to Rebate Prog by Qual Lvl.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\MSCdtRPbQL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="21075" windowHeight="12840"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="MSCdtRPbQL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MSCdtRPbQL Market Share Changes due to Rebate Program by Quality Level</t>
   </si>
@@ -44,9 +49,6 @@
     <t>Rebate-Qualifying</t>
   </si>
   <si>
-    <t>Change in Perc Share</t>
-  </si>
-  <si>
     <t>Analysing the Impact of Energy Star Rebate Policies in the U.S.</t>
   </si>
   <si>
@@ -61,11 +63,17 @@
   <si>
     <t>That is, this is a percentage of all sales, not a percentage of the sales of a particular quality level.</t>
   </si>
+  <si>
+    <t>Change in Perc Share (dimensionless)</t>
+  </si>
+  <si>
+    <t>This variable measures how a rebate program influences market shares of rebate-qualifying and non-qualifying components.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,13 +120,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -129,6 +141,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -177,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,7 +227,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,9 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -450,7 +467,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,28 +486,33 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -509,7 +531,9 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -526,9 +550,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B2">
         <f>-C2</f>
@@ -796,13 +820,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C29A1EC-9483-4588-8FA9-5E14F1F80C75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF45577A-9238-4C47-A184-7E38792D56CE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5A18101-81CD-4A3C-A000-808B357F7221}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50DAE37-A112-4EDF-87AE-C278841C9782}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD5974ED-819A-46AD-A1BD-DBCF0642B4D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A9B2882-0B6E-47A9-964C-0996C0FB4233}"/>
 </file>